--- a/Hulpmiddelen/Userstories.xlsx
+++ b/Hulpmiddelen/Userstories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patricia\Documents\000_Mediacollege\bewijzenmap\1.3\f2m3BO\ArcadeBO_2\ArcadeBO\Hulpmiddelen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MA\Periode3\BO\ArcadeBO\Hulpmiddelen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C0BFF1-37B0-4A82-A369-97E946D96660}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7628CE1-6BA8-4A79-B359-05A41649825C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,6 +485,42 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,42 +565,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,9 +574,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF21FF41"/>
       <color rgb="FF66CCFF"/>
       <color rgb="FFFFAA21"/>
-      <color rgb="FF21FF41"/>
     </mruColors>
   </colors>
   <extLst>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,94 +903,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="12" t="s">
         <v>0</v>
       </c>
@@ -1002,16 +1002,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="8">
@@ -1019,14 +1019,14 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="31" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="25" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="8">
@@ -1034,14 +1034,14 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="8">
@@ -1049,12 +1049,12 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="8">
@@ -1062,16 +1062,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="14">
@@ -1079,8 +1079,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1092,8 +1092,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -1105,10 +1105,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="5" t="s">
         <v>0</v>
       </c>
@@ -1120,10 +1120,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2"/>
@@ -1133,8 +1133,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="38" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1146,8 +1146,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="37" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="2"/>
@@ -1157,8 +1157,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="37" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2"/>
@@ -1168,8 +1168,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2"/>
@@ -1179,8 +1179,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="37" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="2"/>
@@ -1190,8 +1190,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="38" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="2"/>
@@ -1201,8 +1201,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="31" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="2"/>
@@ -1212,8 +1212,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="39" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="9"/>
@@ -1223,10 +1223,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="11" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1254,7 +1254,7 @@
     </row>
     <row r="33" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="2"/>
@@ -1288,18 +1288,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1500,18 +1500,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ADE92FA-AA73-423C-9D08-9E82EDFE29DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C602E6E9-4B45-4210-A9DE-8337C399DDDC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C602E6E9-4B45-4210-A9DE-8337C399DDDC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ADE92FA-AA73-423C-9D08-9E82EDFE29DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
